--- a/figures/figure1_remake/RECOMB20192020.xlsx
+++ b/figures/figure1_remake/RECOMB20192020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yueshen\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\research\virtual-conference-analysis\figures\figure1_remake\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BED7322C-DE4C-41AB-AAA7-99E291CCEFB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E614966D-7093-40E6-9CCC-FF200528BC99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8630" yWindow="1280" windowWidth="27170" windowHeight="21600" xr2:uid="{88D10A2C-B504-4D65-A96A-14AEA180A1A3}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="25580" windowHeight="14380" xr2:uid="{88D10A2C-B504-4D65-A96A-14AEA180A1A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Year</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>Asian</t>
+  </si>
+  <si>
+    <t>US Black</t>
+  </si>
+  <si>
+    <t>US Hispanic</t>
   </si>
 </sst>
 </file>
@@ -449,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D46E01-6CD0-4E30-A15B-AAF14D9FA193}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -818,6 +824,44 @@
         <v>0.36238180424226935</v>
       </c>
     </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <f>B21/B15</f>
+        <v>1.06951871657754E-2</v>
+      </c>
+      <c r="E21">
+        <f>C21/C15</f>
+        <v>1.0222335803731152E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <v>103</v>
+      </c>
+      <c r="D22">
+        <f>B22/B15</f>
+        <v>3.4759358288770054E-2</v>
+      </c>
+      <c r="E22">
+        <f>C22/C15</f>
+        <v>2.6322514694607717E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
